--- a/config_7.20/act_ty_gifts_config.xlsx
+++ b/config_7.20/act_ty_gifts_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -116,13 +116,13 @@
     <t>9,10,11,12</t>
   </si>
   <si>
-    <t>gift_sxlb</t>
-  </si>
-  <si>
-    <t>act_004_sxlb</t>
-  </si>
-  <si>
-    <t>盛夏礼包</t>
+    <t>gift_khlb</t>
+  </si>
+  <si>
+    <t>act_006_khlb</t>
+  </si>
+  <si>
+    <t>狂欢礼包</t>
   </si>
   <si>
     <t>13,14,15,16</t>
@@ -362,61 +362,61 @@
     <t>10587,10588,10589</t>
   </si>
   <si>
-    <t>"60万金币","6万","西瓜加成"</t>
-  </si>
-  <si>
-    <t>"100万金币","12万","西瓜加成"</t>
-  </si>
-  <si>
-    <t>"180万金币","18万","西瓜加成"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx","ty_icon_yb_3","xg_icon_1"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx2","ty_icon_yb_3","xg_icon_1"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx3","ty_icon_yb_3","xg_icon_1"</t>
-  </si>
-  <si>
-    <t>"任意购买1个礼包,西瓜增加10%;\n任意购买2个礼包,西瓜增加30%;\n任意购买3个礼包,西瓜增加50%。"</t>
+    <t>"60万金币","6万","积分加成"</t>
+  </si>
+  <si>
+    <t>"100万金币","12万","积分加成"</t>
+  </si>
+  <si>
+    <t>"180万金币","18万","积分加成"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx","ty_icon_yb_3","jf_icon_1"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx2","ty_icon_yb_3","jf_icon_1"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","ty_icon_yb_3","jf_icon_1"</t>
+  </si>
+  <si>
+    <t>"任意购买1个礼包,积分增加10%;\n任意购买2个礼包,积分增加30%;\n任意购买3个礼包,积分增加50%。"</t>
   </si>
   <si>
     <t>10590,10591,10592</t>
   </si>
   <si>
-    <t>"180万金币","7万","西瓜加成"</t>
-  </si>
-  <si>
-    <t>"300万金币","12万","西瓜加成"</t>
-  </si>
-  <si>
-    <t>"480万金币","18万","西瓜加成"</t>
+    <t>"180万金币","7万","积分加成"</t>
+  </si>
+  <si>
+    <t>"300万金币","12万","积分加成"</t>
+  </si>
+  <si>
+    <t>"480万金币","18万","积分加成"</t>
   </si>
   <si>
     <t>10593,10594,10595</t>
   </si>
   <si>
-    <t>"980万金币","38万","西瓜加成"</t>
-  </si>
-  <si>
-    <t>"1980万金币","80万","西瓜加成"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx3","ty_icon_yb_4","xg_icon_1"</t>
+    <t>"980万金币","38万","积分加成"</t>
+  </si>
+  <si>
+    <t>"1980万金币","80万","积分加成"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","ty_icon_yb_4","jf_icon_1"</t>
   </si>
   <si>
     <t>10596,10597,10598</t>
   </si>
   <si>
-    <t>"4980万金币","180万","西瓜加成"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx2","ty_icon_yb_4","xg_icon_1"</t>
-  </si>
-  <si>
-    <t>"hflb_btn_bx3","ty_icon_yb_5","xg_icon_1"</t>
+    <t>"4980万金币","180万","积分加成"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx2","ty_icon_yb_4","jf_icon_1"</t>
+  </si>
+  <si>
+    <t>"hflb_btn_bx3","ty_icon_yb_5","jf_icon_1"</t>
   </si>
   <si>
     <t>line|行号</t>
@@ -425,7 +425,7 @@
     <t>content|规则内容</t>
   </si>
   <si>
-    <t>1、购买礼包，在3D捕鱼、街机捕鱼、海底冒险中获得的西瓜在排行榜中有额外加成</t>
+    <t>1、购买礼包，活动中获得的积分在排行榜中有额外加成</t>
   </si>
   <si>
     <t>2、加成效果仅限购买礼包当日</t>
@@ -437,11 +437,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,10 +450,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -465,15 +478,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,31 +506,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,7 +523,55 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -555,39 +585,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -596,6 +595,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -627,31 +633,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,151 +807,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,16 +828,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -860,26 +866,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -924,10 +930,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -936,16 +942,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -957,141 +963,144 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1413,239 +1422,237 @@
   <sheetPr/>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="10" customWidth="1"/>
-    <col min="2" max="3" width="26.5" style="10" customWidth="1"/>
-    <col min="4" max="4" width="27.75" style="10" customWidth="1"/>
-    <col min="5" max="5" width="23" style="4" customWidth="1"/>
-    <col min="6" max="6" width="22.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="36.375" style="10" customWidth="1"/>
-    <col min="8" max="8" width="21.5" style="10" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="12.625" style="11" customWidth="1"/>
+    <col min="2" max="3" width="26.5" style="11" customWidth="1"/>
+    <col min="4" max="4" width="27.75" style="11" customWidth="1"/>
+    <col min="5" max="5" width="23" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.25" style="5" customWidth="1"/>
+    <col min="7" max="7" width="36.375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="21.5" style="11" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="9" customFormat="1" spans="1:9">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" spans="1:9">
-      <c r="A2" s="3">
+    <row r="2" s="10" customFormat="1" spans="1:9">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>1617667200</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>1618243199</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>1618272000</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>1622476799</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>1624320000</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>1624895999</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="4">
-        <v>1624924800</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1625500799</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="E5" s="5">
+        <v>1626739200</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1627315199</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+    <row r="6" spans="1:2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1658,785 +1665,797 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="4" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="49.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="29.75" style="4" customWidth="1"/>
-    <col min="6" max="6" width="43.25" style="4" customWidth="1"/>
-    <col min="7" max="7" width="41.625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="43.375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="48" style="4" customWidth="1"/>
-    <col min="10" max="10" width="68.125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="77.5" style="4" customWidth="1"/>
-    <col min="12" max="13" width="78.875" style="4" customWidth="1"/>
-    <col min="14" max="14" width="96.375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="126.75" style="4" customWidth="1"/>
-    <col min="16" max="16" width="22.25" style="4" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="12.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="49.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="29.75" style="5" customWidth="1"/>
+    <col min="6" max="6" width="43.25" style="5" customWidth="1"/>
+    <col min="7" max="7" width="41.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="43.375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="48" style="5" customWidth="1"/>
+    <col min="10" max="10" width="68.125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="77.5" style="5" customWidth="1"/>
+    <col min="12" max="13" width="78.875" style="5" customWidth="1"/>
+    <col min="14" max="14" width="96.375" style="5" customWidth="1"/>
+    <col min="15" max="15" width="126.75" style="5" customWidth="1"/>
+    <col min="16" max="16" width="22.25" style="5" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:16">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:16">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" spans="1:16">
-      <c r="A2" s="3">
+    <row r="2" s="4" customFormat="1" spans="1:16">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:16">
-      <c r="A3" s="3">
+    <row r="3" s="4" customFormat="1" spans="1:16">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:16">
-      <c r="A4" s="3">
+    <row r="4" s="4" customFormat="1" spans="1:16">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="P4" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:16">
-      <c r="A5" s="3">
+    <row r="5" s="4" customFormat="1" spans="1:16">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="P6" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="P7" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O8" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="P8" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="P9" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="J10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="L10" s="4" t="s">
+      <c r="L10" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="O10" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="P10" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K11" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="L11" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="O11" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="P11" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="L12" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="O12" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="P12" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="O13" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="P13" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="I14" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="P14" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="O15" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="P15" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="H16" s="4" t="s">
+      <c r="H16" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="J16" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="L16" s="4" t="s">
+      <c r="L16" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="O16" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="P16" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="J17" s="4" t="s">
+      <c r="J17" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="O17" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="P17" s="4" t="s">
         <v>52</v>
       </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2450,8 +2469,8 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -2468,19 +2487,19 @@
         <v>124</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" ht="17.25" spans="1:2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" ht="17.25" spans="1:2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>126</v>
       </c>
     </row>

--- a/config_7.20/act_ty_gifts_config.xlsx
+++ b/config_7.20/act_ty_gifts_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
     <t>gift_khlb</t>
   </si>
   <si>
-    <t>act_006_khlb</t>
+    <t>act_005_khlb</t>
   </si>
   <si>
     <t>狂欢礼包</t>
@@ -436,10 +436,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -464,6 +464,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -477,15 +491,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,40 +516,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -545,9 +530,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -562,8 +547,16 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -579,7 +572,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,16 +600,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -633,37 +633,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,145 +807,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,6 +842,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -862,15 +882,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -913,27 +924,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -942,133 +942,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1422,8 +1422,8 @@
   <sheetPr/>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -2469,7 +2469,7 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
